--- a/interface_frameworkby_jingyu/TestData/data.xlsx
+++ b/interface_frameworkby_jingyu/TestData/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -130,7 +130,12 @@
     <t>"code": 0</t>
   </si>
   <si>
-    <t>pass</t>
+    <t>{
+  "code": 10, 
+  "data": null, 
+  "description": null, 
+  "msg": "need login"
+}</t>
   </si>
   <si>
     <t>ke_tboard-2</t>
@@ -164,6 +169,9 @@
   </si>
   <si>
     <t>"pci"</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>ke_tboard-4</t>
@@ -856,18 +864,18 @@
         <v>48</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="8" s="4" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>34</v>
@@ -880,18 +888,18 @@
       <c r="H8" s="10" t="n"/>
       <c r="I8" s="3" t="n"/>
       <c r="J8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10" t="n"/>
       <c r="C9" s="3" t="n"/>
@@ -907,7 +915,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="10" t="n"/>
       <c r="C10" s="3" t="n"/>
